--- a/LU/player.xlsx
+++ b/LU/player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\LU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBE03B7F-1DA2-440D-BA06-23B0D7198284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F6CE6-07DA-4C56-9410-E8AEAF23337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E4516D5-189A-4891-AF5B-B176F2947109}"/>
   </bookViews>
@@ -4356,7 +4356,7 @@
   <dimension ref="A1:M654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
